--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11954.7433147562</v>
+        <v>2378993.919636483</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11954.7433147562</v>
+        <v>2378993.919636483</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39031.97492208294</v>
+        <v>2367401.15602578</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39031.97492208294</v>
+        <v>2367401.15602578</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1343045688.984043</v>
+        <v>53995379.89181636</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12997.9197588694</v>
+        <v>1355754.184024075</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24515.63439137238</v>
+        <v>2457709.094315095</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36033.34902387534</v>
+        <v>3559664.004606117</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48785.17577421295</v>
+        <v>4594441.673954688</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61524.76336155754</v>
+        <v>5630189.621291521</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74264.35094890214</v>
+        <v>6665937.568628352</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>87003.93853624671</v>
+        <v>7701685.51596518</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99743.52612359139</v>
+        <v>8737433.463302011</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112313.0555120998</v>
+        <v>9741451.568437971</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124910.378828094</v>
+        <v>10779128.92909967</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>137493.1308309569</v>
+        <v>11813906.59844824</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>150075.8828338198</v>
+        <v>12848684.26779681</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>162658.6348366827</v>
+        <v>13883461.93714539</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>175241.3868395456</v>
+        <v>14918239.60649397</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>187947.1700217913</v>
+        <v>15939151.55217621</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>216</v>
@@ -27052,10 +27052,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
